--- a/inst/extdata/TableOfMainExistingDatasets.xlsx
+++ b/inst/extdata/TableOfMainExistingDatasets.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="514">
-  <si>
-    <t>Sample.</t>
-  </si>
-  <si>
-    <t>N.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="504">
+  <si>
+    <t>X.....Sample</t>
+  </si>
+  <si>
+    <t>X.....N</t>
   </si>
   <si>
     <t>Age.range</t>
@@ -32,7 +32,7 @@
     <t>Clinical.</t>
   </si>
   <si>
-    <t>NeuroImaging..MRI..PET.MRI.</t>
+    <t>Neuroimaging</t>
   </si>
   <si>
     <t>EEG.MEG</t>
@@ -59,94 +59,94 @@
     <t>Specificities</t>
   </si>
   <si>
-    <t>ADNI (Alzheimer’s disease Neuroimaging Initiative)</t>
-  </si>
-  <si>
-    <t>AIBL (Australian Imaging Biomarkers and Lifestyle Study of Aging)</t>
-  </si>
-  <si>
-    <t>OASIS3 (Open Access Series of Imaging Studies v3)</t>
-  </si>
-  <si>
-    <t>ABCD (Adolescent Brain Cognitive Development)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENIGMA (Enhancing NeuroImaging Genetics using Meta-analyses) </t>
-  </si>
-  <si>
-    <t>CNPET</t>
-  </si>
-  <si>
-    <t>CIMBI</t>
-  </si>
-  <si>
-    <t>GigaScience</t>
-  </si>
-  <si>
-    <t>GIPSALab</t>
-  </si>
-  <si>
-    <t>physionet </t>
+    <t>Alzheimer’s disease Neuroimaging Initiative (ADNI)</t>
+  </si>
+  <si>
+    <t>Australian Imaging Biomarkers and Lifestyle Study of Aging (AIBL)</t>
+  </si>
+  <si>
+    <t>Open Access Series of Imaging Studies v3 (OASIS3)</t>
+  </si>
+  <si>
+    <t>Adolescent Brain Cognitive Development (ABCD)</t>
+  </si>
+  <si>
+    <t>Enhancing NeuroImaging Genetics using Meta-analyses (ENIGMA)</t>
+  </si>
+  <si>
+    <t>Chinese Brain PET Template (CNPET)</t>
+  </si>
+  <si>
+    <t>Center for Integrated Molecular Brain Imaging (CIMBI)</t>
+  </si>
+  <si>
+    <t>Motor Imagery dataset from Cho et al 2017</t>
+  </si>
+  <si>
+    <t>EEG Alpha Waves dataset</t>
+  </si>
+  <si>
+    <t>Multitaper spectra recorded during GABAergic anesthetic unconsciousness</t>
   </si>
   <si>
     <t>WU-M HCP inn consortium Human Connectome Project</t>
   </si>
   <si>
-    <t>Openneuro - MRC Cognition &amp; Brain Sciences Unit</t>
-  </si>
-  <si>
-    <t>BCI competition dataset 1 - BBCI</t>
-  </si>
-  <si>
-    <t>BBCI - BCI competition dataset 2a</t>
-  </si>
-  <si>
-    <t>BCI competition dataset 2b</t>
-  </si>
-  <si>
-    <t>Plos one</t>
-  </si>
-  <si>
-    <t>BMEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Nature - Medical Faculty of the University of Tubingen</t>
-  </si>
-  <si>
-    <t>Temple University Hospital</t>
+    <t>A multi-subject, multi-modal human neuroimaging dataset</t>
+  </si>
+  <si>
+    <t>Motor imagery, uncued classifier application</t>
+  </si>
+  <si>
+    <t>BCI Competition 2008 – Graz data set A</t>
+  </si>
+  <si>
+    <t>BCI Competition 2008 – Graz data set B</t>
+  </si>
+  <si>
+    <t>EEG dataset from Mumtaz et al., 2017</t>
+  </si>
+  <si>
+    <t>EEG data for ADHD / Control children</t>
+  </si>
+  <si>
+    <t>EEG and EOG data from Jaramillo-Gonzalez et al., 2021</t>
+  </si>
+  <si>
+    <t>Temple University Hospital (TUH) EEG Corpus</t>
   </si>
   <si>
     <t>Bern Barcelona EEG data base</t>
   </si>
   <si>
-    <t>PhysioBank BNCI Horizon</t>
-  </si>
-  <si>
-    <t>QTAB</t>
-  </si>
-  <si>
-    <t>QTIM</t>
-  </si>
-  <si>
-    <t>HCP-YA</t>
-  </si>
-  <si>
-    <t>VETSA</t>
-  </si>
-  <si>
-    <t>OATS</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>UKB (UK Biobank)     imaging subset  actigraphy subset</t>
+    <t>CHB-MIT Scalp EEG Database  Brain/Neural Computer Interaction (BNCI ) Horizon</t>
+  </si>
+  <si>
+    <t>Queensland Twin Adolescent Brain (QTAB)</t>
+  </si>
+  <si>
+    <t>Queensland Twin Imaging Study (QTIM)</t>
+  </si>
+  <si>
+    <t>Human Connectome Project, young adults (HCP-YA)</t>
+  </si>
+  <si>
+    <t>Vietnam Era Twin Study of Aging (VETSA)</t>
+  </si>
+  <si>
+    <t>Older Adults Twin Study (OATS)</t>
+  </si>
+  <si>
+    <t>Swedish Twin Registry (STR)</t>
+  </si>
+  <si>
+    <t>UK Biobank (UKB)     imaging subset  actigraphy subset</t>
   </si>
   <si>
     <t>Avon Longitudinal Study of Parents and Children (ALSPAC): Accessible Resource for Integrated Epigenomic Studies (ARIES)</t>
   </si>
   <si>
-    <t>The BIOS Consortium (Biobank-based Integrative Omics Studies)</t>
+    <t>Biobank-based Integrative Omics Studies (The BIOS Consortium)</t>
   </si>
   <si>
     <t>Framingham Heart Study</t>
@@ -164,70 +164,67 @@
     <t>Genetics of DNA Methylation Consortium (goDMC)</t>
   </si>
   <si>
-    <t>PGC</t>
-  </si>
-  <si>
-    <t>phs000988 </t>
-  </si>
-  <si>
-    <t>phs000974</t>
+    <t>Psychiatric Genomics Consortium (PGC)</t>
+  </si>
+  <si>
+    <t>The Genetic Epidemiology of Asthma in Costa Rica</t>
   </si>
   <si>
     <t>phs001612</t>
   </si>
   <si>
-    <t>phs001211</t>
-  </si>
-  <si>
-    <t>phs001387</t>
-  </si>
-  <si>
-    <t>Phs001515</t>
-  </si>
-  <si>
-    <t>phs000951</t>
-  </si>
-  <si>
-    <t>GTEx</t>
-  </si>
-  <si>
-    <t>AP-HP</t>
-  </si>
-  <si>
-    <t>TPR</t>
-  </si>
-  <si>
-    <t>LISA</t>
-  </si>
-  <si>
-    <t>MGR</t>
-  </si>
-  <si>
-    <t>NPR</t>
-  </si>
-  <si>
-    <t>SCR</t>
-  </si>
-  <si>
-    <t>MBR</t>
-  </si>
-  <si>
-    <t>CDR</t>
-  </si>
-  <si>
-    <t>PDR</t>
-  </si>
-  <si>
-    <t>SDR</t>
-  </si>
-  <si>
-    <t>Neuro-Register</t>
-  </si>
-  <si>
-    <t>Riks-Stroke</t>
-  </si>
-  <si>
-    <t>BATS</t>
+    <t>Atherosclerosis Risk in Communities (ARIC)</t>
+  </si>
+  <si>
+    <t>Rare Variants for Hypertension in Taiwan Chinese (THRV)</t>
+  </si>
+  <si>
+    <t>My Life, Our Future initiative (MLOF)</t>
+  </si>
+  <si>
+    <t>Genetic Epidemiology of COPD (COPDGene)</t>
+  </si>
+  <si>
+    <t>Genotype-Tissue Expression (GTEx)</t>
+  </si>
+  <si>
+    <t>Greater-Paris Area Hospital (AP-HP)</t>
+  </si>
+  <si>
+    <t>Swedish Total Population Register (TPR)</t>
+  </si>
+  <si>
+    <t>Swedish Longitudinal Integrated Database for Health Insurance and Labour Market Studies (LISA)</t>
+  </si>
+  <si>
+    <t>Swedish Multi-Generation Register (MGR)</t>
+  </si>
+  <si>
+    <t>Swedish National Patient Register (NPR)</t>
+  </si>
+  <si>
+    <t>Swedish Cancer Register (SCR)</t>
+  </si>
+  <si>
+    <t>Swedish Medical Birth Register (MBR)</t>
+  </si>
+  <si>
+    <t>Swedish Causes of Death Register (CDR)</t>
+  </si>
+  <si>
+    <t>Swedish Prescribed Drug Register (PDR)</t>
+  </si>
+  <si>
+    <t>Swedish Dementia Registry (SDR)</t>
+  </si>
+  <si>
+    <t>Swedish Neuro-Register (SNR)</t>
+  </si>
+  <si>
+    <t>Swedish Stroke Register (Riks-Stroke)</t>
+  </si>
+  <si>
+    <t>Brisbane Adolescent Twin Sample (BATS)</t>
   </si>
   <si>
     <t>mPower</t>
@@ -290,7 +287,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>22 2</t>
+    <t>22  2</t>
   </si>
   <si>
     <t>422 (baseline)</t>
@@ -311,7 +308,7 @@
     <t>87,000 twin pairs</t>
   </si>
   <si>
-    <t>~502,000      ~44,000  ~100,000</t>
+    <t>~502,000       ~44,000    ~100,000</t>
   </si>
   <si>
     <t>2,044</t>
@@ -341,9 +338,6 @@
     <t>4,347</t>
   </si>
   <si>
-    <t>4,188</t>
-  </si>
-  <si>
     <t>3,423</t>
   </si>
   <si>
@@ -365,10 +359,10 @@
     <t>~130K patients (~200K images)</t>
   </si>
   <si>
-    <t>Nationwide coverage </t>
-  </si>
-  <si>
-    <t>All individuals ≥16 years in Sweden </t>
+    <t>Nationwide coverage (N=9,775,572 on April 30, 2015)</t>
+  </si>
+  <si>
+    <t>All individuals ≥16 years in Sweden</t>
   </si>
   <si>
     <t xml:space="preserve">Over 11 million </t>
@@ -425,7 +419,7 @@
     <t>17-93</t>
   </si>
   <si>
-    <t>24.8 ± 3.86  year old</t>
+    <t>24.8 SD= 3.86 year old</t>
   </si>
   <si>
     <t>19 - 44 year old</t>
@@ -455,7 +449,7 @@
     <t>32874</t>
   </si>
   <si>
-    <t>1.5 - 22 year old NA</t>
+    <t>1.5 - 22 year old  NA</t>
   </si>
   <si>
     <t>9-14 (baseline)</t>
@@ -476,7 +470,7 @@
     <t>All ages</t>
   </si>
   <si>
-    <t>37-73      44-82  40 - 69</t>
+    <t>37-73       44-82    40 - 69</t>
   </si>
   <si>
     <t>Average age: Mothers (antenatal = 28.7, followup = 47.5), Offspring (Birth = 40 weeks, Childhood = 7.5 years, Adolescence = 17.1)</t>
@@ -506,9 +500,6 @@
     <t>44901</t>
   </si>
   <si>
-    <t>58-62</t>
-  </si>
-  <si>
     <t>18-30</t>
   </si>
   <si>
@@ -584,9 +575,6 @@
     <t>Malaysia</t>
   </si>
   <si>
-    <t>Sout Korea</t>
-  </si>
-  <si>
     <t>Barcelona</t>
   </si>
   <si>
@@ -614,7 +602,7 @@
     <t>Costa Rica</t>
   </si>
   <si>
-    <t xml:space="preserve">Taiwan/China </t>
+    <t>Taiwan/China , Japan</t>
   </si>
   <si>
     <t>Longitudinal (up to 9 years of follow-up, ongoing)</t>
@@ -653,7 +641,7 @@
     <t>Longitudinal</t>
   </si>
   <si>
-    <t>Longitudinal longitudinal</t>
+    <t>Longitudinal  longitudinal</t>
   </si>
   <si>
     <t>Longitudinal (Since the late 1950s)</t>
@@ -665,9 +653,6 @@
     <t>Cross-sectional (multi-generational)</t>
   </si>
   <si>
-    <t xml:space="preserve">Longitudinal </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cross-sectional/longitudinal </t>
   </si>
   <si>
@@ -707,28 +692,25 @@
     <t>Longitudinal (Since 1994)</t>
   </si>
   <si>
-    <t>Neurological (Alzheimers’), cognition, lumbar puncture</t>
-  </si>
-  <si>
-    <t>Neurological (Alzheimers’), cognition</t>
+    <t>Neurological (Alzheimer’s’), cognition, lumbar puncture</t>
+  </si>
+  <si>
+    <t>Neurological (Alzheimer’s’), cognition</t>
   </si>
   <si>
     <t>Self and parental rating. Substance use, mental health (psychiatry), cognition, physical health.</t>
   </si>
   <si>
-    <t>Psychiatry, Neurology,  Addiction, Suicidality, Brain injury, HIV, Antisocial behavior…</t>
-  </si>
-  <si>
-    <t>NA (healthy subjects)</t>
+    <t>Psychiatry, Neurology,  Addiction, Suicidality, Brain injury, HIV, Antisocial behaviour.</t>
+  </si>
+  <si>
+    <t>Healthy subjects</t>
   </si>
   <si>
     <t>Mental and physical state, personality and background. Neuropsychological measures (memory, language…)</t>
   </si>
   <si>
-    <t>Healthy subjects</t>
-  </si>
-  <si>
-    <t>Healthy participants and patients receiving an anesthesia care in an operating room context</t>
+    <t>Healthy participants and patients receiving an anaesthesia care in an operating room context</t>
   </si>
   <si>
     <t>Case control for Major Depressive Disorder</t>
@@ -737,25 +719,31 @@
     <t xml:space="preserve">ADHD  (61 children) and healthy controls (60) </t>
   </si>
   <si>
-    <t>Amyothrophic lateral sclerosis, locked-in state</t>
+    <t>Amyotrophic lateral sclerosis, locked-in state</t>
   </si>
   <si>
     <t>Epilepsy</t>
   </si>
   <si>
-    <t>Intractable seizures Chronic stroke </t>
+    <t>Intractable seizures  Chronic stroke</t>
   </si>
   <si>
     <t>Population sample</t>
   </si>
   <si>
-    <t>Population sample </t>
-  </si>
-  <si>
-    <t>US verterans, males only.</t>
-  </si>
-  <si>
-    <t>Self-reported and EHR medical history</t>
+    <t>Population sample, clinical scales, self-reported conditions, Computer-assisted telephone interview (psychiatry, substance use)</t>
+  </si>
+  <si>
+    <t>Population sample (clinical scales, self-reported conditions (psychiatry and substance use)</t>
+  </si>
+  <si>
+    <t>US veterans, males only.</t>
+  </si>
+  <si>
+    <t>Alzheimer’s, Mild Cognitive Impairment and controls</t>
+  </si>
+  <si>
+    <t>Self-reported and EHR medical history (incl. cancer, neurology, COVID-19)</t>
   </si>
   <si>
     <t>Clinical evaluations, Obstetric data, Cognition, questionnaires</t>
@@ -767,7 +755,7 @@
     <t>Extensive clinical evaluations and bioassays, original focus on cardiovascular diseases</t>
   </si>
   <si>
-    <t>Clinical evaluations and bioassays; cardiovascular diseases</t>
+    <t>Clinical evaluations and bioassays; cardiovascular diseases, women only</t>
   </si>
   <si>
     <t xml:space="preserve">Case control of Amyotrophic Lateral Sclerosis </t>
@@ -779,13 +767,10 @@
     <t>Multiple diseases, but also healthy-ageing cohorts</t>
   </si>
   <si>
-    <t>Psychiatric disorders </t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>WGS analyses of brain imaging measures</t>
+    <t>Psychiatric disorders, substance use disorders and neurology: Major Depressive Disorder, Cannabis Use Disorder, Alcohol Use Disorder, Schizophrenia, Anorexia, Bipolar, ADHD, Alzheimer’s</t>
+  </si>
+  <si>
+    <t>Asthma cases and controls</t>
   </si>
   <si>
     <t>Coronary Artery Risk</t>
@@ -794,16 +779,16 @@
     <t>Red blood cell phenotype</t>
   </si>
   <si>
-    <t xml:space="preserve">Insulin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hemophilia </t>
+    <t>Insulin resistant cases and controls</t>
+  </si>
+  <si>
+    <t>Haemophilia cases and controls</t>
   </si>
   <si>
     <t>pulmonary functions</t>
   </si>
   <si>
-    <t>- general medical history - evidence of HIV - blood donation - potential exposures - history at time of death - death circumstances - serology results - smoking status</t>
+    <t>General medical history, HIV status,  potential exposures, medical history at time of death, death circumstances, serology results,  smoking status</t>
   </si>
   <si>
     <t>ICD10 codes</t>
@@ -830,10 +815,7 @@
     <t>Motor neuron disease, MS</t>
   </si>
   <si>
-    <t>Stroke and TIA </t>
-  </si>
-  <si>
-    <t>NA </t>
+    <t>Stroke and transient ischaemic attack (TIA)</t>
   </si>
   <si>
     <t>Parkinson’s disease (subsample self-identified professional diagnosis)</t>
@@ -866,7 +848,7 @@
     <t>fMRI</t>
   </si>
   <si>
-    <t>NA NA</t>
+    <t>NA  NA</t>
   </si>
   <si>
     <t>MRI (T1w, T2w, FLAIR, DWI, resting-state, task fMRI, ASL)</t>
@@ -902,7 +884,7 @@
     <t>MRI, PET and CT</t>
   </si>
   <si>
-    <t>MRI and CT scan</t>
+    <t xml:space="preserve">MRI and CT scan </t>
   </si>
   <si>
     <t>Resting state EEG</t>
@@ -914,13 +896,13 @@
     <t>EEG (16 channels); Resting state, eyes open/closed</t>
   </si>
   <si>
-    <t>EEG (64 for healthy volunteers, 6 for patients under anesthesia)</t>
-  </si>
-  <si>
-    <t>MEG (1,200 sessions); resting, sensori-motor tasks</t>
-  </si>
-  <si>
-    <t>MEG, EEG (70 channels); resting, sensori-motor tasks</t>
+    <t>EEG (64 for healthy volunteers, 6 for patients under anaesthesia)</t>
+  </si>
+  <si>
+    <t>MEG (1,200 sessions); resting, sensory-motor tasks</t>
+  </si>
+  <si>
+    <t>MEG, EEG (70 channels); resting, sensory-motor tasks</t>
   </si>
   <si>
     <t>EEG (59 channels); Hands, feet and tongue motor imagination tasks</t>
@@ -947,24 +929,18 @@
     <t>EEG (64 channels) ; rest</t>
   </si>
   <si>
-    <t>EEG (21 channels) ; Resting state EEG (2 channels) ; Eye staring task</t>
+    <t>EEG (21 channels) ; Resting state  EEG (2 channels) ; Eye staring task</t>
   </si>
   <si>
     <t>MEG (n = 95)</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>EEG</t>
   </si>
   <si>
     <t>MEG</t>
   </si>
   <si>
-    <t>ECG </t>
-  </si>
-  <si>
     <t>Genotyping, WGS</t>
   </si>
   <si>
@@ -1004,7 +980,7 @@
     <t>WGS</t>
   </si>
   <si>
-    <t>Yes </t>
+    <t>Pedigree</t>
   </si>
   <si>
     <t xml:space="preserve">Methylation (subset of 653 individuals – 3 time points) </t>
@@ -1013,6 +989,9 @@
     <t xml:space="preserve">Methylation </t>
   </si>
   <si>
+    <t>Methylation is not available in the STR yet, but is available in the Swedish Adoption/Twin Study of Aging (SATSA), a sub-study of the STR.</t>
+  </si>
+  <si>
     <t>Methylation</t>
   </si>
   <si>
@@ -1028,21 +1007,21 @@
     <t>iPAD tasks and testing</t>
   </si>
   <si>
-    <t>Wrist-worn accelerometer </t>
-  </si>
-  <si>
-    <t>Online assessment, and test batteries</t>
-  </si>
-  <si>
     <t>Wrist-worn accelerometer</t>
   </si>
   <si>
+    <t>Actigraphy</t>
+  </si>
+  <si>
     <t>iPhone application</t>
   </si>
   <si>
     <t>Transcriptomics, CSF proteomics, metabolomics, lipidomics</t>
   </si>
   <si>
+    <t>Metabolomics (future release)</t>
+  </si>
+  <si>
     <t>Transcriptomics</t>
   </si>
   <si>
@@ -1052,9 +1031,6 @@
     <t>Transcriptomics, Metabolomics, miRNA</t>
   </si>
   <si>
-    <t>aa </t>
-  </si>
-  <si>
     <t>http://adni.loni.usc.edu/data-samples/access-data/</t>
   </si>
   <si>
@@ -1115,7 +1091,7 @@
     <t xml:space="preserve">https://repositori.upf.edu/handle/10230/42829 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.physionet.org/content/chbmit/1.0.0/ http://bnci-horizon-2020.eu/database/data-sets </t>
+    <t xml:space="preserve">https://www.physionet.org/content/chbmit/1.0.0/  http://bnci-horizon-2020.eu/database/data-sets </t>
   </si>
   <si>
     <t xml:space="preserve">https://imaginggenomics.net.au/ </t>
@@ -1142,7 +1118,7 @@
     <t xml:space="preserve">https://www.bbmri.nl/node/24 </t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/projects/gap/cgi-bin/study.cgi?study_id=phs000724.v9.p13</t>
+    <t>https://www.ncbi.nlm.nih.gov/projects/gap/cgi-bin/study.cgi?study_id=phs000724.v9.p13  https://dx.doi.org/10.1212%2FWNL.0000000000004820</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/projects/gap/cgi-bin/study.cgi?study_id=phs001335.v2.p3</t>
@@ -1163,10 +1139,7 @@
     <t>https://www.ncbi.nlm.nih.gov/bioproject/?term=PRJNA295246</t>
   </si>
   <si>
-    <t>https://dbgap.ncbi.nlm.nih.gov/aa/wga.cgi?page=login </t>
-  </si>
-  <si>
-    <t>https://dbgap.ncbi.nlm.nih.gov/aa/wga.cgi?page=login</t>
+    <t>https://doi.org/10.1101/2021.12.16.21267871</t>
   </si>
   <si>
     <t>https://anvilproject.org/data/studies/phs001211</t>
@@ -1175,10 +1148,10 @@
     <t>https://anvilproject.org/ncpi/data/studies/phs001387</t>
   </si>
   <si>
-    <t>https://dbgap.ncbi.nlm.nih.gov/aa/wga.cgi?login=&amp;page=login</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/gap</t>
+    <t>10.1182/bloodadvances.2016002923</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/gap   DOI: 10.1038/s41467-020-18334-7</t>
   </si>
   <si>
     <t>https://gtexportal.org/home/  Data dictionary: https://www.ncbi.nlm.nih.gov/projects/gap/cgi-bin/dataset.cgi?study_id=phs000424.v8.p2&amp;phv=169091&amp;phd=3910&amp;pha=&amp;pht=2742&amp;phvf=&amp;phdf=&amp;phaf=&amp;phtf=&amp;dssp=1&amp;consent=&amp;temp=1</t>
@@ -1217,10 +1190,10 @@
     <t>www.neuroreg.se</t>
   </si>
   <si>
-    <t>www.riksstroke.org/</t>
-  </si>
-  <si>
-    <t>https://imaginggenomics.net.au/  </t>
+    <t xml:space="preserve">www.riksstroke.org/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://imaginggenomics.net.au/  </t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/Sage-Bionetworks/mPower   </t>
@@ -1283,7 +1256,7 @@
     <t>(Andrzejak et al., 2012)</t>
   </si>
   <si>
-    <t>(Goldberger et al., 2000) (Brunner et al., 2015)</t>
+    <t>(Goldberger et al., 2000)  (Brunner et al., 2015)</t>
   </si>
   <si>
     <t>O’Callaghan et al., 2021)</t>
@@ -1313,7 +1286,7 @@
     <t>(Bonder et al., 2017)</t>
   </si>
   <si>
-    <t>(Huan et al., 2019)</t>
+    <t>(Huan et al., 2019)      Sarnowski et al 2017</t>
   </si>
   <si>
     <t>(Westerman et al., 2019)</t>
@@ -1331,10 +1304,7 @@
     <t xml:space="preserve">(Sullivan, 2010; Sullivan et al., 2018) </t>
   </si>
   <si>
-    <t>Mak et al 2018 </t>
-  </si>
-  <si>
-    <t>Sarnowski et al 2017</t>
+    <t>(Mak et al., 2018)</t>
   </si>
   <si>
     <t>Wheeler et al 2021</t>
@@ -1427,6 +1397,9 @@
     <t>Patients under anesthesia during surgery.</t>
   </si>
   <si>
+    <t xml:space="preserve">OpenfMRI database, accession number ds000117 </t>
+  </si>
+  <si>
     <t>Data used for a BCI competition. Also include simulated/synthetic data.</t>
   </si>
   <si>
@@ -1436,22 +1409,22 @@
     <t xml:space="preserve">Data for a BCI competition. </t>
   </si>
   <si>
-    <t>Usage of referenced EEG  (resting task), MDD based on medical history of patients</t>
+    <t>Usage of referenced EEG (resting task), MDD based on medical history of patients</t>
   </si>
   <si>
     <t>Visual cognitive tests on children with ADHD, using videos</t>
   </si>
   <si>
-    <t>Personal questions with yes-no answers </t>
-  </si>
-  <si>
-    <t>Extensive dataset of 30k clinical EEG recordings collected at TUH from 2002 to today. Epilepsy subset : TUEP dataset.  </t>
-  </si>
-  <si>
-    <t>Surface EEG  samples before and after surgery</t>
-  </si>
-  <si>
-    <t>Pediatric subjects with intractable seizures The BNCI is an opensource project with several datasets. Stroke is “6. SCP training in stroke (006-2014)”</t>
+    <t>Personal questions with yes-no answers. Electro-oculography (EOG).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extensive dataset of 30k clinical EEG recordings collected at TUH from 2002 to today. Epilepsy subset : TUEP dataset. </t>
+  </si>
+  <si>
+    <t>Surface EEG samples before and after surgery</t>
+  </si>
+  <si>
+    <t>Paediatric subjects with intractable seizures  The BNCI is an opensource project with several datasets. Stroke is “6. SCP training in stroke (006-2014)”</t>
   </si>
   <si>
     <t>Includes participants from Queensland Twin Registry and Twins Research Australia</t>
@@ -1460,10 +1433,10 @@
     <t>Include participants from Brisbane Adolescent Twin Study</t>
   </si>
   <si>
-    <t>Expanded to development and aging projects (similar imaging protocols, but do not include twins).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset of the Vietnam Era Twin Registry. </t>
+    <t>Expanded to development and aging projects (similar imaging protocols, but extensions do not include twins).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset of the Vietnam Era Twin Registry, males only. </t>
   </si>
   <si>
     <t>Recruited through the Australian Twin Registry.</t>
@@ -1472,7 +1445,7 @@
     <t xml:space="preserve">Twin Registry. </t>
   </si>
   <si>
-    <t>Population based sample (volunteers), healthy bias, ongoing resource and data collection. Target MRI sample 100K, retest 10K. Body imaging (MRI) also available.</t>
+    <t xml:space="preserve">Population based sample (volunteers), healthy bias, ongoing resource and data collection. Target MRI sample 100K, retest 10K. Also available: whole body MRI, Haematological assays, serological antibody responses assay, telomere length   </t>
   </si>
   <si>
     <t>General population study (health and development) following 1,022 mother-offspring pairs; 2 timepoints for mother, 3 for offspring.</t>
@@ -1481,7 +1454,7 @@
     <t>Population study including various sub-cohorts, covering differing research designs (Life Lines, Leiden Longevity Study, Netherlands Twin Registry, Rotterdam Study, CODAM, and the Prospective ALS Study Netherlands); access via European Genome-phenome Archive (EGA) and SURFsara High Performance Computing cloud</t>
   </si>
   <si>
-    <t>Data collected over two generations of individuals; cardiovascular MRI.</t>
+    <t>Data collected over two generations of individuals; cardiovascular MRI.  A subset of individuals are used to identify rare variants influencing brain imaging phenotypes. Data included in NHLBI TOPMed</t>
   </si>
   <si>
     <t>Women only.</t>
@@ -1496,28 +1469,25 @@
     <t>A subset of individuals from this sample/accession is used in Pharmacogenetic Drug Response in Racially Diverse Children with Asthma. Data included in NHLBI TOPMed</t>
   </si>
   <si>
-    <t>A subset of individuals are used to identify rare variants influencing brain imaging phenotypes. Data included in NHLBI TOPMed</t>
-  </si>
-  <si>
     <t>A subset of individuals are used to identify common and rare structural variants contributing to hematologic traits, GWAS statistics. Data included in NHLBI TOPMed</t>
   </si>
   <si>
     <t>WGS association study of red blood cell phenotypes, GWAS statistics available. Data included in NHLBI TOPMed</t>
   </si>
   <si>
-    <t>Clustering and heritability of insulin resistance in Chinese and Japanese  hypertensive families . Data included in NHLBI TOPMed</t>
-  </si>
-  <si>
-    <t>Summary statistics, different types of DNA variants detected in hemophilia. Data included in NHLBI TOPMed</t>
-  </si>
-  <si>
-    <t>multi-omic  data from GTEx and TOPMed identify potential molecular mechanisms underlying four of the 22 novel loci. Data included in NHLBI TOPMed</t>
+    <t>Clustering and heritability of insulin resistance in Chinese and Japanese hypertensive families. Data included in NHLBI TOPMed</t>
+  </si>
+  <si>
+    <t>Summary statistics, different types of DNA variants detected in haemophilia. Data included in NHLBI TOPMed</t>
+  </si>
+  <si>
+    <t>multi-omic data from GTEx and TOPMed identify potential molecular mechanisms underlying four of the 22 novel loci. Data included in NHLBI TOPMed</t>
   </si>
   <si>
     <t>Post-mortem samples</t>
   </si>
   <si>
-    <t>Figures correspond to a specific project approved on the clinical data warehouse of the CDW  of the Greater-Paris Area Hospital (AP-HP). More data collected as part of clinical care are available upon request.</t>
+    <t>Figures correspond to a specific project approved on the clinical data warehouse (CDW) of the Greater-Paris Area Hospital (AP-HP). More data collected as part of clinical care are available upon request.</t>
   </si>
   <si>
     <t>Demographic information</t>
@@ -1532,7 +1502,7 @@
     <t>Clinical diagnoses from inpatient and outpatient care</t>
   </si>
   <si>
-    <t>Quality  Register of medical birth</t>
+    <t xml:space="preserve"> Register of medical birth</t>
   </si>
   <si>
     <t>Register of cause of death</t>
@@ -1541,13 +1511,13 @@
     <t>Register of prescribed drug</t>
   </si>
   <si>
-    <t>Quality register of Dementia</t>
-  </si>
-  <si>
-    <t>Quality Register of motor neuron disease (especially MS)  </t>
-  </si>
-  <si>
-    <t>Quality Register  of stroke and TIA</t>
+    <t>Register of Dementia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register of MND (especially MS) </t>
+  </si>
+  <si>
+    <t>Register of stroke and TIA; includes Electro-cardiograms</t>
   </si>
   <si>
     <t>Includes participants from the Queensland Twin Registry</t>
@@ -1656,46 +1626,46 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="J2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="N2" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="O2" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3">
@@ -1703,46 +1673,46 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J3" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="L3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="N3" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="O3" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4">
@@ -1750,46 +1720,46 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="N4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="O4" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5">
@@ -1797,46 +1767,46 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="J5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="L5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M5" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="N5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="O5" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6">
@@ -1844,46 +1814,46 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="I6" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="J6" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M6" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="N6" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="O6" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7">
@@ -1891,46 +1861,46 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="N7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="O7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8">
@@ -1938,46 +1908,46 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="J8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M8" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="N8" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="O8" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9">
@@ -1985,46 +1955,46 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="N9" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="O9" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10">
@@ -2032,46 +2002,46 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="I10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="N10" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="O10" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11">
@@ -2079,46 +2049,46 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F11" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="I11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N11" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="O11" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12">
@@ -2126,46 +2096,46 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H12" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M12" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="N12" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="O12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
@@ -2173,46 +2143,46 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H13" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M13" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="N13" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="O13" t="s">
-        <v>139</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14">
@@ -2220,46 +2190,46 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F14" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H14" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M14" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="N14" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="O14" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15">
@@ -2267,46 +2237,46 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H15" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="N15" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="O15" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16">
@@ -2314,46 +2284,46 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F16" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H16" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="N16" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="O16" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17">
@@ -2361,46 +2331,46 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M17" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="N17" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="O17" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18">
@@ -2408,46 +2378,46 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F18" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H18" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M18" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="N18" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="O18" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19">
@@ -2455,46 +2425,46 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F19" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H19" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="N19" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="O19" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20">
@@ -2502,46 +2472,46 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F20" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M20" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="N20" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="O20" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21">
@@ -2549,46 +2519,46 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F21" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H21" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="I21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M21" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="N21" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="O21" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22">
@@ -2596,46 +2566,46 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F22" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G22" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H22" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I22" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J22" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K22" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L22" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M22" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="N22" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="O22" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23">
@@ -2643,46 +2613,46 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F23" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G23" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I23" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="J23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K23" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M23" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="N23" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="O23" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24">
@@ -2690,46 +2660,46 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F24" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="J24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M24" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="N24" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="O24" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25">
@@ -2737,46 +2707,46 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E25" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H25" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I25" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="J25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M25" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="N25" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="O25" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26">
@@ -2784,46 +2754,46 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G26" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I26" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="J26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M26" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="N26" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="O26" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27">
@@ -2831,46 +2801,46 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E27" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="G27" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I27" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="J27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M27" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="N27" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="O27" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28">
@@ -2878,46 +2848,46 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I28" t="s">
+        <v>317</v>
+      </c>
+      <c r="J28" t="s">
         <v>325</v>
       </c>
-      <c r="J28" t="s">
-        <v>330</v>
-      </c>
       <c r="K28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M28" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="N28" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="O28" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29">
@@ -2925,46 +2895,46 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E29" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F29" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I29" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="J29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K29" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L29" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="M29" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="N29" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="O29" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30">
@@ -2972,46 +2942,46 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G30" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I30" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J30" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L30" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M30" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="N30" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="O30" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31">
@@ -3019,46 +2989,46 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E31" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I31" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="J31" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L31" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M31" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="N31" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="O31" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32">
@@ -3066,46 +3036,46 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F32" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I32" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="J32" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L32" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M32" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="N32" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="O32" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33">
@@ -3113,46 +3083,46 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E33" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F33" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I33" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J33" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L33" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M33" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="N33" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="O33" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34">
@@ -3160,46 +3130,46 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F34" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I34" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J34" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M34" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="N34" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="O34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35">
@@ -3207,46 +3177,46 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E35" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F35" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I35" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J35" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M35" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="N35" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="O35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36">
@@ -3254,46 +3224,46 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F36" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I36" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J36" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M36" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="N36" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="O36" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="37">
@@ -3301,46 +3271,46 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F37" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I37" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="J37" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="K37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M37" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="N37" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="O37" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38">
@@ -3348,46 +3318,46 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E38" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F38" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I38" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="J38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M38" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="N38" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="O38" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39">
@@ -3395,46 +3365,46 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E39" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I39" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="J39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M39" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="N39" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="O39" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40">
@@ -3442,46 +3412,46 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F40" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I40" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="J40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M40" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="N40" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="O40" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41">
@@ -3489,46 +3459,46 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E41" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F41" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I41" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="J41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M41" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="N41" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="O41" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42">
@@ -3536,46 +3506,46 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D42" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E42" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F42" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I42" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="J42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M42" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="N42" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="O42" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="43">
@@ -3583,46 +3553,46 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E43" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F43" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I43" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="J43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M43" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="N43" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="O43" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="44">
@@ -3630,46 +3600,46 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F44" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G44" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H44" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I44" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="J44" t="s">
-        <v>139</v>
+        <v>328</v>
       </c>
       <c r="K44" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L44" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M44" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="N44" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="O44" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45">
@@ -3677,46 +3647,46 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F45" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G45" t="s">
-        <v>143</v>
+        <v>287</v>
       </c>
       <c r="H45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I45" t="s">
-        <v>329</v>
+        <v>141</v>
       </c>
       <c r="J45" t="s">
-        <v>335</v>
+        <v>141</v>
       </c>
       <c r="K45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L45" t="s">
-        <v>346</v>
+        <v>141</v>
       </c>
       <c r="M45" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="N45" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="O45" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="46">
@@ -3724,46 +3694,46 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E46" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F46" t="s">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="G46" t="s">
-        <v>293</v>
+        <v>141</v>
       </c>
       <c r="H46" t="s">
-        <v>313</v>
+        <v>141</v>
       </c>
       <c r="I46" t="s">
-        <v>313</v>
+        <v>141</v>
       </c>
       <c r="J46" t="s">
-        <v>313</v>
+        <v>141</v>
       </c>
       <c r="K46" t="s">
-        <v>313</v>
+        <v>141</v>
       </c>
       <c r="L46" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M46" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="N46" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="O46" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47">
@@ -3771,46 +3741,46 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E47" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M47" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="N47" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="O47" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48">
@@ -3818,46 +3788,46 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D48" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E48" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I48" t="s">
-        <v>143</v>
+        <v>322</v>
       </c>
       <c r="J48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M48" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="N48" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="O48" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="49">
@@ -3865,46 +3835,46 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E49" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F49" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="G49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I49" t="s">
-        <v>273</v>
+        <v>141</v>
       </c>
       <c r="J49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M49" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="N49" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="O49" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="50">
@@ -3912,46 +3882,46 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E50" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F50" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M50" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="N50" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="O50" t="s">
-        <v>505</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51">
@@ -3959,46 +3929,46 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E51" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F51" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M51" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="N51" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="O51" t="s">
-        <v>139</v>
+        <v>496</v>
       </c>
     </row>
     <row r="52">
@@ -4006,46 +3976,46 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="D52" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E52" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F52" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M52" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="N52" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="O52" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="53">
@@ -4053,46 +4023,46 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E53" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F53" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M53" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="N53" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="O53" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54">
@@ -4100,46 +4070,46 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E54" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F54" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G54" t="s">
-        <v>143</v>
+        <v>288</v>
       </c>
       <c r="H54" t="s">
-        <v>143</v>
+        <v>307</v>
       </c>
       <c r="I54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M54" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="N54" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="O54" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55">
@@ -4147,46 +4117,46 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E55" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F55" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G55" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H55" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="I55" t="s">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="J55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M55" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="N55" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="O55" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56">
@@ -4194,46 +4164,46 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E56" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F56" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G56" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H56" t="s">
-        <v>315</v>
+        <v>141</v>
       </c>
       <c r="I56" t="s">
-        <v>330</v>
+        <v>141</v>
       </c>
       <c r="J56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M56" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="N56" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="O56" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57">
@@ -4241,46 +4211,46 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" t="s">
         <v>176</v>
       </c>
-      <c r="D57" t="s">
-        <v>194</v>
-      </c>
       <c r="E57" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="F57" t="s">
-        <v>272</v>
+        <v>141</v>
       </c>
       <c r="G57" t="s">
-        <v>296</v>
+        <v>141</v>
       </c>
       <c r="H57" t="s">
-        <v>316</v>
+        <v>141</v>
       </c>
       <c r="I57" t="s">
-        <v>143</v>
+        <v>314</v>
       </c>
       <c r="J57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K57" t="s">
-        <v>143</v>
+        <v>331</v>
       </c>
       <c r="L57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M57" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="N57" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="O57" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="58">
@@ -4288,93 +4258,46 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F58" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I58" t="s">
-        <v>322</v>
+        <v>141</v>
       </c>
       <c r="J58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K58" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="L58" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M58" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="N58" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="O58" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" t="s">
-        <v>168</v>
-      </c>
-      <c r="D59" t="s">
-        <v>192</v>
-      </c>
-      <c r="E59" t="s">
-        <v>212</v>
-      </c>
-      <c r="F59" t="s">
-        <v>274</v>
-      </c>
-      <c r="G59" t="s">
-        <v>143</v>
-      </c>
-      <c r="H59" t="s">
-        <v>143</v>
-      </c>
-      <c r="I59" t="s">
-        <v>143</v>
-      </c>
-      <c r="J59" t="s">
-        <v>143</v>
-      </c>
-      <c r="K59" t="s">
-        <v>341</v>
-      </c>
-      <c r="L59" t="s">
-        <v>143</v>
-      </c>
-      <c r="M59" t="s">
-        <v>403</v>
-      </c>
-      <c r="N59" t="s">
-        <v>460</v>
-      </c>
-      <c r="O59" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
